--- a/ig/sd-extension-contact-spécifique-au-site/StructureDefinition-eclaire-secondary-sponsor.xlsx
+++ b/ig/sd-extension-contact-spécifique-au-site/StructureDefinition-eclaire-secondary-sponsor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T09:02:45+00:00</t>
+    <t>2023-07-27T15:12:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-extension-contact-spécifique-au-site/StructureDefinition-eclaire-secondary-sponsor.xlsx
+++ b/ig/sd-extension-contact-spécifique-au-site/StructureDefinition-eclaire-secondary-sponsor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T15:12:13+00:00</t>
+    <t>2023-07-27T16:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-extension-contact-spécifique-au-site/StructureDefinition-eclaire-secondary-sponsor.xlsx
+++ b/ig/sd-extension-contact-spécifique-au-site/StructureDefinition-eclaire-secondary-sponsor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T16:32:50+00:00</t>
+    <t>2023-07-27T17:03:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-extension-contact-spécifique-au-site/StructureDefinition-eclaire-secondary-sponsor.xlsx
+++ b/ig/sd-extension-contact-spécifique-au-site/StructureDefinition-eclaire-secondary-sponsor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T17:03:25+00:00</t>
+    <t>2023-07-28T07:09:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-extension-contact-spécifique-au-site/StructureDefinition-eclaire-secondary-sponsor.xlsx
+++ b/ig/sd-extension-contact-spécifique-au-site/StructureDefinition-eclaire-secondary-sponsor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T07:09:41+00:00</t>
+    <t>2023-07-28T07:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
